--- a/branches/update-content/StructureDefinition-art-regimen-line.xlsx
+++ b/branches/update-content/StructureDefinition-art-regimen-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T08:04:23+00:00</t>
+    <t>2023-03-04T08:06:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
